--- a/数据整理/stocks/A股/深证主板/002174-游族网络.xlsx
+++ b/数据整理/stocks/A股/深证主板/002174-游族网络.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,85 +22,133 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>161030</t>
+  </si>
+  <si>
+    <t>519613</t>
+  </si>
+  <si>
+    <t>519615</t>
+  </si>
+  <si>
     <t>005459</t>
   </si>
   <si>
+    <t>005965</t>
+  </si>
+  <si>
+    <t>005966</t>
+  </si>
+  <si>
     <t>005460</t>
   </si>
   <si>
-    <t>519613</t>
-  </si>
-  <si>
     <t>519614</t>
   </si>
   <si>
-    <t>519615</t>
-  </si>
-  <si>
-    <t>161030</t>
-  </si>
-  <si>
-    <t>005965</t>
-  </si>
-  <si>
-    <t>005966</t>
+    <t>富国中证体育产业指数</t>
+  </si>
+  <si>
+    <t>银河君尚灵活配置混合A</t>
+  </si>
+  <si>
+    <t>银河君尚灵活配置混合I</t>
   </si>
   <si>
     <t>银河嘉谊灵活配置混合A</t>
   </si>
   <si>
+    <t>安信中证500指数增强A</t>
+  </si>
+  <si>
+    <t>安信中证500指数增强C</t>
+  </si>
+  <si>
     <t>银河嘉谊灵活配置混合C</t>
   </si>
   <si>
-    <t>银河君尚灵活配置混合A</t>
-  </si>
-  <si>
     <t>银河君尚灵活配置混合C</t>
   </si>
   <si>
-    <t>银河君尚灵活配置混合I</t>
-  </si>
-  <si>
-    <t>富国中证体育产业指数</t>
-  </si>
-  <si>
-    <t>安信中证500指数增强A</t>
-  </si>
-  <si>
-    <t>安信中证500指数增强C</t>
+    <t>4.13</t>
+  </si>
+  <si>
+    <t>6.05</t>
+  </si>
+  <si>
+    <t>4.05</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>94.30</t>
+  </si>
+  <si>
+    <t>28.97</t>
   </si>
   <si>
     <t>46.89</t>
   </si>
   <si>
-    <t>28.97</t>
-  </si>
-  <si>
-    <t>94.30</t>
-  </si>
-  <si>
     <t>94.98</t>
   </si>
   <si>
+    <t>5.23</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
     <t>0.73</t>
   </si>
   <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>5.23</t>
-  </si>
-  <si>
     <t>1.81</t>
+  </si>
+  <si>
+    <t>0.2160</t>
+  </si>
+  <si>
+    <t>0.0309</t>
+  </si>
+  <si>
+    <t>0.0296</t>
+  </si>
+  <si>
+    <t>0.0118</t>
+  </si>
+  <si>
+    <t>0.0105</t>
+  </si>
+  <si>
+    <t>0.0092</t>
+  </si>
+  <si>
+    <t>0.0003</t>
   </si>
 </sst>
 </file>
@@ -458,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,165 +528,219 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002174-游族网络.xlsx
+++ b/数据整理/stocks/A股/深证主板/002174-游族网络.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1349</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002174-游族网络.xlsx
+++ b/数据整理/stocks/A股/深证主板/002174-游族网络.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1296,4 +1297,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002174-游族网络.xlsx
+++ b/数据整理/stocks/A股/深证主板/002174-游族网络.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1305,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1316,17 +1317,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1336,14 +1357,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.32</v>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1914</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1352,14 +1395,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6899999999999999</v>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1882</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1368,13 +1433,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002174-游族网络.xlsx
+++ b/数据整理/stocks/A股/深证主板/002174-游族网络.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1514,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1525,17 +1526,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1545,14 +1566,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.54</v>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2201</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1561,14 +1604,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.32</v>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1728</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1577,14 +1642,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="5">
@@ -1593,13 +1764,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002174-游族网络.xlsx
+++ b/数据整理/stocks/A股/深证主板/002174-游族网络.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1685,7 +1686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1696,17 +1697,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1716,14 +1737,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.43</v>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1732,14 +1775,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.54</v>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1748,14 +1813,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.32</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="5">
@@ -1764,14 +1935,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="6">
@@ -1780,13 +1951,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002174-游族网络.xlsx
+++ b/数据整理/stocks/A股/深证主板/002174-游族网络.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,357 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161030</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国中证体育产业指数</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2160</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519613</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银河君尚灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>28.97</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0309</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519615</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银河君尚灵活配置混合I</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>28.97</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0309</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005459</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银河嘉谊灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>46.89</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0296</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005965</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>安信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.98</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0118</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005966</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>安信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.98</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0105</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005460</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银河嘉谊灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>46.89</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>519614</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>银河君尚灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>28.97</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
+      <c r="D7" t="n">
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -816,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -877,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.62</t>
+          <t>98.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2111</t>
+          <t>0.2158</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -905,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161030</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数</t>
+          <t>国泰中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>97.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1373</t>
+          <t>0.1519</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -953,178 +725,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.51</t>
+          <t>96.89</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1262</t>
+          <t>0.0390</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>516010</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰中证动漫游戏ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>98.03</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1261</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519613</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银河君尚灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.44</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>25.96</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0446</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519615</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>银河君尚灵活配置混合I</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.44</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>25.96</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0446</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519614</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银河君尚灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>25.96</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +779,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1199,26 +819,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.45</t>
+          <t>98.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1349</t>
+          <t>0.2201</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1237,26 +857,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.68</t>
+          <t>98.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1109</t>
+          <t>0.1728</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1275,26 +895,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.25</t>
+          <t>96.56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0728</t>
+          <t>0.0388</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1537,7 +1157,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1577,26 +1197,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.75</t>
+          <t>98.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2201</t>
+          <t>0.1349</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1615,26 +1235,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.91</t>
+          <t>98.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1728</t>
+          <t>0.1109</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1653,26 +1273,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.56</t>
+          <t>98.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0388</t>
+          <t>0.0728</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1707,7 +1327,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1747,26 +1367,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.81</t>
+          <t>98.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2158</t>
+          <t>0.2111</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1775,36 +1395,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>161030</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰中证动漫游戏ETF</t>
+          <t>富国中证体育产业指数</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.74</t>
+          <t>94.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1519</t>
+          <t>0.1373</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1823,26 +1443,178 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.89</t>
+          <t>98.51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0390</t>
+          <t>0.1262</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519613</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519615</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519614</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1856,128 +1628,356 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2160</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519613</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>46.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>46.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519614</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.34</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002174-游族网络.xlsx
+++ b/数据整理/stocks/A股/深证主板/002174-游族网络.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.41</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.54</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.32</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -588,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,111 +656,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159869</t>
+          <t>516770</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏中证动漫游戏ETF</t>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.81</t>
+          <t>96.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2158</t>
+          <t>0.0303</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>516010</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰中证动漫游戏ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>97.74</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1519</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>516770</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证动漫游戏ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>96.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0390</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -819,26 +760,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.75</t>
+          <t>98.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2201</t>
+          <t>0.2158</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -857,26 +798,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.91</t>
+          <t>97.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1728</t>
+          <t>0.1519</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -895,26 +836,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.56</t>
+          <t>96.89</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0388</t>
+          <t>0.0390</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -923,6 +864,176 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2201</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1728</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1130,7 +1241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1300,7 +1411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1622,7 +1733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
